--- a/biology/Zoologie/Julianus_(genre)/Julianus_(genre).xlsx
+++ b/biology/Zoologie/Julianus_(genre)/Julianus_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julianus est un genre d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julianus est un genre d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces de ce genre se rencontrent au Argentine, en Uruguay et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces de ce genre se rencontrent au Argentine, en Uruguay et au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (9 juin 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (9 juin 2017) :
 Julianus pinimus (Bokermann &amp; Sazima, 1973)
 Julianus uruguayus (Schmidt, 1944)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Julián Faivovich[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Julián Faivovich.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duellman, Marion &amp; Hedges, 2016 : Phylogenetics, classification, and biogeography of the treefrogs (Amphibia: Anura: Arboranae). Zootaxa, no 4104, p. 1–109.</t>
         </is>
